--- a/empoeng.xlsx
+++ b/empoeng.xlsx
@@ -257,7 +257,7 @@
     <t>Yngste:</t>
   </si>
   <si>
-    <t>  (Ondrej Duda 15.12.1994)</t>
+    <t>(Ondrej Duda 15.12.1994)</t>
   </si>
 </sst>
 </file>
@@ -268,7 +268,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="H:MM;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -343,11 +343,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -744,7 +739,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -907,10 +902,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J52" activeCellId="0" sqref="J52"/>
+      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85"/>
@@ -1457,7 +1452,9 @@
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="J11" s="7" t="s">
         <v>48</v>
       </c>
@@ -1502,7 +1499,9 @@
         <v>49</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10" t="n">
+        <v>2</v>
+      </c>
       <c r="I12" s="10"/>
       <c r="J12" s="7" t="s">
         <v>50</v>
@@ -1640,27 +1639,27 @@
       </c>
       <c r="M15" s="49" t="n">
         <f aca="false">SUM($G$1:$I$36)/2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N15" s="49" t="n">
         <f aca="false">SUM($G$1:$I$36)/2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O15" s="49" t="n">
         <f aca="false">SUM($G$1:$I$36)/2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P15" s="49" t="n">
         <f aca="false">SUM($G$1:$I$36)/2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="49" t="n">
         <f aca="false">SUM($G$1:$I$36)/2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R15" s="49" t="n">
         <f aca="false">SUM($G$1:$I$36)/2</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,7 +2335,7 @@
         <v>78</v>
       </c>
       <c r="G39" s="47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,6 +2349,7 @@
         <v>80</v>
       </c>
     </row>
+    <row r="52" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="F1">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
